--- a/Fase 2/Evidencias Proyecto/Evidencias de documentacion/Historias de Usuario.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentacion/Historias de Usuario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\casti\Documents\GitHub\Capstone-MusicPro\Fase 2\Evidencias Proyecto\Evidencias de documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA9DEC2-1381-458D-9364-1A3DAF3A3666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71E80A7-1301-4932-A64E-13A084BAD29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="POINTS" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="70">
   <si>
     <t>TAREA E ID DE BACKLOG</t>
   </si>
@@ -243,12 +243,21 @@
   <si>
     <t xml:space="preserve"> HISTORIAS - PUNTUACION - HORAS ASGINADAS</t>
   </si>
+  <si>
+    <t>Rol</t>
+  </si>
+  <si>
+    <t>Usuario</t>
+  </si>
+  <si>
+    <t>Administrador</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -303,6 +312,21 @@
       <color theme="0"/>
       <name val="Century Gothic"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -646,7 +670,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -696,13 +720,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -712,6 +730,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -754,14 +781,17 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1559,42 +1589,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02DB1070-C800-4369-A7E0-CEFD906B49B6}">
-  <dimension ref="B1:AB12"/>
+  <dimension ref="A1:AB12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="61.625" customWidth="1"/>
-    <col min="3" max="3" width="20.75" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" s="2" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="24" t="s">
+    <row r="1" spans="1:28" s="2" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
@@ -1602,14 +1633,17 @@
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
     </row>
-    <row r="2" spans="2:28" s="2" customFormat="1" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" s="2" customFormat="1" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>67</v>
+      </c>
       <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>63</v>
       </c>
       <c r="E2" s="3"/>
@@ -1628,142 +1662,172 @@
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
     </row>
-    <row r="3" spans="2:28" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="39" t="str">
+    <row r="3" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="22" t="str">
         <f>'H-HRS 1'!B3</f>
         <v>01 Historia de Usuario 1: Registro de usuario</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="19">
         <f>'H-HRS 1'!C3</f>
         <v>3</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="43">
         <f>'H-HRS 1'!F3</f>
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:28" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="40" t="str">
+    <row r="4" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="23" t="str">
         <f>'H-HRS 1'!B8</f>
         <v xml:space="preserve">02 Historia de Usuario 2: Inicio de sesión </v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="20">
         <f>'H-HRS 1'!C8</f>
         <v>1</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="43">
         <f>'H-HRS 1'!F8</f>
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:28" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="40" t="str">
+    <row r="5" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="23" t="str">
         <f>'H-HRS 1'!B13</f>
         <v>03 Historia de Usuario 3: Agregar productos al carrito</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="20">
         <f>'H-HRS 1'!C13</f>
         <v>5</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="43">
         <f>'H-HRS 1'!F13</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:28" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="40" t="str">
+    <row r="6" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="23" t="str">
         <f>'H-HRS 1'!B18</f>
         <v xml:space="preserve">04 Historia de Usuario 4: Realizar pago seguro </v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="20">
         <f>'H-HRS 1'!C18</f>
         <v>8</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="43">
         <f>'H-HRS 1'!F18</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:28" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="40" t="str">
+    <row r="7" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="23" t="str">
         <f>'H-HRS 1'!B23</f>
         <v>05 Historia de Usuario 5: Chatbot de asistencia</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="20">
         <f>'H-HRS 1'!C23</f>
         <v>3</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="43">
         <f>'H-HRS 1'!F23</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:28" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="40" t="str">
+    <row r="8" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="23" t="str">
         <f>'H-HRS 2'!B3</f>
         <v>06 Historia de Usuario 6: Ver detalles del product</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="20">
         <f>'H-HRS 2'!C3</f>
         <v>3</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="43">
         <f>'H-HRS 2'!F3</f>
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:28" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="40" t="str">
+    <row r="9" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="23" t="str">
         <f>'H-HRS 2'!B7</f>
         <v>07 Historia de Usuario 7: Filtrar productos por categoría</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="20">
         <f>'H-HRS 2'!C7</f>
         <v>3</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="43">
         <f>'H-HRS 2'!F7</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:28" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="40" t="str">
+    <row r="10" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="23" t="str">
         <f>'H-HRS 2'!B12</f>
         <v xml:space="preserve">08 Historia de Usuario 8: Realizar reseñas de productos </v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="20">
         <f>'H-HRS 2'!C12</f>
         <v>2</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="43">
         <f>'H-HRS 2'!F12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:28" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B11" s="40" t="str">
+    <row r="11" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="23" t="str">
         <f>'H-HRS 2'!B17</f>
         <v xml:space="preserve">09 Historia de Usuario 9: Gestionar inventario de productos </v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="20">
         <f>'H-HRS 2'!C17</f>
         <v>4</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="43">
         <f>'H-HRS 2'!F17</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="41" t="str">
+    <row r="12" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="24" t="str">
         <f>'H-HRS 2'!B22</f>
         <v xml:space="preserve">10 Historia de Usuario 10: Administrar pedidos </v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="21">
         <f>'H-HRS 2'!C22</f>
         <v>4</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="43">
         <f>'H-HRS 2'!F22</f>
         <v>0</v>
       </c>
@@ -1773,6 +1837,7 @@
     <mergeCell ref="B1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1784,8 +1849,8 @@
   </sheetPr>
   <dimension ref="B1:AB124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -1806,29 +1871,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
@@ -1891,13 +1956,13 @@
       <c r="B3" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="31">
         <v>3</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="37" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="17">
@@ -1931,11 +1996,11 @@
       <c r="B4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="31"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="37"/>
+      <c r="E4" s="38"/>
       <c r="F4" s="10">
         <f>G4+H4+I4+J4+K4</f>
         <v>5</v>
@@ -1979,11 +2044,11 @@
       <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="31"/>
+      <c r="C5" s="32"/>
       <c r="D5" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="37"/>
+      <c r="E5" s="38"/>
       <c r="F5" s="10">
         <f t="shared" ref="F5:F7" si="0">G5+H5+I5+J5+K5</f>
         <v>4</v>
@@ -2027,11 +2092,11 @@
       <c r="B6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="31"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="37"/>
+      <c r="E6" s="38"/>
       <c r="F6" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2075,11 +2140,11 @@
       <c r="B7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="32"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="38"/>
+      <c r="E7" s="39"/>
       <c r="F7" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2123,13 +2188,13 @@
       <c r="B8" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="34">
         <v>1</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="37" t="s">
         <v>32</v>
       </c>
       <c r="F8" s="17">
@@ -2163,11 +2228,11 @@
       <c r="B9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="34"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="37"/>
+      <c r="E9" s="38"/>
       <c r="F9" s="10">
         <f>SUM(G9:K9)</f>
         <v>3</v>
@@ -2211,11 +2276,11 @@
       <c r="B10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="34"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="37"/>
+      <c r="E10" s="38"/>
       <c r="F10" s="10">
         <f t="shared" ref="F10:F12" si="1">SUM(G10:K10)</f>
         <v>2</v>
@@ -2259,11 +2324,11 @@
       <c r="B11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="34"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="37"/>
+      <c r="E11" s="38"/>
       <c r="F11" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -2307,11 +2372,11 @@
       <c r="B12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="35"/>
+      <c r="C12" s="36"/>
       <c r="D12" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="38"/>
+      <c r="E12" s="39"/>
       <c r="F12" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -2355,13 +2420,13 @@
       <c r="B13" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="34">
         <v>5</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="36" t="s">
+      <c r="E13" s="37" t="s">
         <v>32</v>
       </c>
       <c r="F13" s="17">
@@ -2395,11 +2460,11 @@
       <c r="B14" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="34"/>
+      <c r="C14" s="35"/>
       <c r="D14" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="37"/>
+      <c r="E14" s="38"/>
       <c r="F14" s="10">
         <f>SUM(G14:K14)</f>
         <v>0</v>
@@ -2443,11 +2508,11 @@
       <c r="B15" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="34"/>
+      <c r="C15" s="35"/>
       <c r="D15" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="37"/>
+      <c r="E15" s="38"/>
       <c r="F15" s="10">
         <f t="shared" ref="F15:F17" si="2">SUM(G15:K15)</f>
         <v>0</v>
@@ -2491,11 +2556,11 @@
       <c r="B16" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="34"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="37"/>
+      <c r="E16" s="38"/>
       <c r="F16" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2539,11 +2604,11 @@
       <c r="B17" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="35"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="38"/>
+      <c r="E17" s="39"/>
       <c r="F17" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2587,13 +2652,13 @@
       <c r="B18" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="34">
         <v>8</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="37" t="s">
         <v>32</v>
       </c>
       <c r="F18" s="17">
@@ -2627,11 +2692,11 @@
       <c r="B19" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="34"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="37"/>
+      <c r="E19" s="38"/>
       <c r="F19" s="10">
         <f>SUM(G19:K19)</f>
         <v>0</v>
@@ -2675,11 +2740,11 @@
       <c r="B20" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="34"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="37"/>
+      <c r="E20" s="38"/>
       <c r="F20" s="10">
         <f t="shared" ref="F20:F22" si="3">SUM(G20:K20)</f>
         <v>0</v>
@@ -2723,11 +2788,11 @@
       <c r="B21" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="34"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="37"/>
+      <c r="E21" s="38"/>
       <c r="F21" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2771,11 +2836,11 @@
       <c r="B22" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="34"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="38"/>
+      <c r="E22" s="39"/>
       <c r="F22" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2819,13 +2884,13 @@
       <c r="B23" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="33">
+      <c r="C23" s="34">
         <v>3</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="36" t="s">
+      <c r="E23" s="37" t="s">
         <v>32</v>
       </c>
       <c r="F23" s="17">
@@ -2859,11 +2924,11 @@
       <c r="B24" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="34"/>
+      <c r="C24" s="35"/>
       <c r="D24" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="37"/>
+      <c r="E24" s="38"/>
       <c r="F24" s="10">
         <f>SUM(G24:K24)</f>
         <v>0</v>
@@ -2907,11 +2972,11 @@
       <c r="B25" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="34"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="37"/>
+      <c r="E25" s="38"/>
       <c r="F25" s="10">
         <f t="shared" ref="F25:F27" si="4">SUM(G25:K25)</f>
         <v>0</v>
@@ -2955,11 +3020,11 @@
       <c r="B26" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="34"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="37"/>
+      <c r="E26" s="38"/>
       <c r="F26" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3003,11 +3068,11 @@
       <c r="B27" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="35"/>
+      <c r="C27" s="36"/>
       <c r="D27" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="38"/>
+      <c r="E27" s="39"/>
       <c r="F27" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3129,27 +3194,27 @@
       <c r="AB29" s="3"/>
     </row>
     <row r="30" spans="2:28" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
-      <c r="T30" s="29"/>
-      <c r="U30" s="29"/>
-      <c r="V30" s="29"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="30"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="30"/>
+      <c r="U30" s="30"/>
+      <c r="V30" s="30"/>
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
@@ -5928,29 +5993,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
@@ -6013,13 +6078,13 @@
       <c r="B3" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="34">
         <v>3</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="37" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="17">
@@ -6053,9 +6118,9 @@
       <c r="B4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="34"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="14"/>
-      <c r="E4" s="37"/>
+      <c r="E4" s="38"/>
       <c r="F4" s="10">
         <f>SUM(G4:K4)</f>
         <v>4</v>
@@ -6099,9 +6164,9 @@
       <c r="B5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="34"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="37"/>
+      <c r="E5" s="38"/>
       <c r="F5" s="10">
         <f t="shared" ref="F5:F6" si="0">SUM(G5:K5)</f>
         <v>8</v>
@@ -6145,9 +6210,9 @@
       <c r="B6" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="35"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="14"/>
-      <c r="E6" s="38"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6191,13 +6256,13 @@
       <c r="B7" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="34">
         <v>3</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="37" t="s">
         <v>32</v>
       </c>
       <c r="F7" s="17">
@@ -6231,9 +6296,9 @@
       <c r="B8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="34"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="14"/>
-      <c r="E8" s="37"/>
+      <c r="E8" s="38"/>
       <c r="F8" s="10">
         <f>SUM(G8:K8)</f>
         <v>0</v>
@@ -6277,9 +6342,9 @@
       <c r="B9" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="34"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="14"/>
-      <c r="E9" s="37"/>
+      <c r="E9" s="38"/>
       <c r="F9" s="10">
         <f t="shared" ref="F9:F10" si="1">SUM(G9:K9)</f>
         <v>0</v>
@@ -6323,9 +6388,9 @@
       <c r="B10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="34"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="14"/>
-      <c r="E10" s="37"/>
+      <c r="E10" s="38"/>
       <c r="F10" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6369,9 +6434,9 @@
       <c r="B11" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="35"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="38"/>
+      <c r="E11" s="39"/>
       <c r="F11" s="10">
         <f>SUM(G11:K11)</f>
         <v>0</v>
@@ -6415,13 +6480,13 @@
       <c r="B12" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="34">
         <v>2</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="37" t="s">
         <v>32</v>
       </c>
       <c r="F12" s="17">
@@ -6455,9 +6520,9 @@
       <c r="B13" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="34"/>
+      <c r="C13" s="35"/>
       <c r="D13" s="14"/>
-      <c r="E13" s="37"/>
+      <c r="E13" s="38"/>
       <c r="F13" s="10">
         <f>SUM(G13:K13)</f>
         <v>0</v>
@@ -6501,9 +6566,9 @@
       <c r="B14" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="34"/>
+      <c r="C14" s="35"/>
       <c r="D14" s="14"/>
-      <c r="E14" s="37"/>
+      <c r="E14" s="38"/>
       <c r="F14" s="10">
         <f t="shared" ref="F14:F16" si="2">SUM(G14:K14)</f>
         <v>0</v>
@@ -6547,9 +6612,9 @@
       <c r="B15" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="34"/>
+      <c r="C15" s="35"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="37"/>
+      <c r="E15" s="38"/>
       <c r="F15" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -6593,9 +6658,9 @@
       <c r="B16" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="35"/>
+      <c r="C16" s="36"/>
       <c r="D16" s="14"/>
-      <c r="E16" s="38"/>
+      <c r="E16" s="39"/>
       <c r="F16" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -6639,13 +6704,13 @@
       <c r="B17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="34">
         <v>4</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="37" t="s">
         <v>32</v>
       </c>
       <c r="F17" s="17">
@@ -6679,9 +6744,9 @@
       <c r="B18" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="34"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="37"/>
+      <c r="E18" s="38"/>
       <c r="F18" s="10">
         <f>SUM(G18:K18)</f>
         <v>0</v>
@@ -6725,9 +6790,9 @@
       <c r="B19" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="34"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="37"/>
+      <c r="E19" s="38"/>
       <c r="F19" s="10">
         <f t="shared" ref="F19:F21" si="3">SUM(G19:K19)</f>
         <v>0</v>
@@ -6771,9 +6836,9 @@
       <c r="B20" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="34"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="14"/>
-      <c r="E20" s="37"/>
+      <c r="E20" s="38"/>
       <c r="F20" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6817,9 +6882,9 @@
       <c r="B21" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="35"/>
+      <c r="C21" s="36"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="38"/>
+      <c r="E21" s="39"/>
       <c r="F21" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6863,13 +6928,13 @@
       <c r="B22" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="33">
+      <c r="C22" s="34">
         <v>4</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="37" t="s">
         <v>32</v>
       </c>
       <c r="F22" s="17">
@@ -6903,9 +6968,9 @@
       <c r="B23" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="34"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="14"/>
-      <c r="E23" s="37"/>
+      <c r="E23" s="38"/>
       <c r="F23" s="10">
         <f>SUM(G23:K23)</f>
         <v>0</v>
@@ -6949,9 +7014,9 @@
       <c r="B24" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="35"/>
+      <c r="C24" s="36"/>
       <c r="D24" s="14"/>
-      <c r="E24" s="38"/>
+      <c r="E24" s="39"/>
       <c r="F24" s="10">
         <f>SUM(G24:K24)</f>
         <v>0</v>
@@ -7073,27 +7138,27 @@
       <c r="AB26" s="3"/>
     </row>
     <row r="27" spans="2:28" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="29"/>
-      <c r="V27" s="29"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="30"/>
+      <c r="U27" s="30"/>
+      <c r="V27" s="30"/>
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>

--- a/Fase 2/Evidencias Proyecto/Evidencias de documentacion/Historias de Usuario.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentacion/Historias de Usuario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\casti\Documents\GitHub\Capstone-MusicPro\Fase 2\Evidencias Proyecto\Evidencias de documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71E80A7-1301-4932-A64E-13A084BAD29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2E6202-D3A9-4351-96B0-0D3277EC2CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="POINTS" sheetId="6" r:id="rId1"/>
@@ -740,6 +740,18 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -780,18 +792,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -908,16 +908,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>58</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6</c:v>
@@ -926,7 +926,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1094,16 +1094,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>58</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6</c:v>
@@ -1112,7 +1112,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1603,29 +1603,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="2" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
@@ -1663,7 +1663,7 @@
       <c r="S2" s="3"/>
     </row>
     <row r="3" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="25" t="s">
         <v>68</v>
       </c>
       <c r="B3" s="22" t="str">
@@ -1674,13 +1674,13 @@
         <f>'H-HRS 1'!C3</f>
         <v>3</v>
       </c>
-      <c r="D3" s="43">
+      <c r="D3" s="28">
         <f>'H-HRS 1'!F3</f>
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="26" t="s">
         <v>68</v>
       </c>
       <c r="B4" s="23" t="str">
@@ -1691,13 +1691,13 @@
         <f>'H-HRS 1'!C8</f>
         <v>1</v>
       </c>
-      <c r="D4" s="43">
+      <c r="D4" s="28">
         <f>'H-HRS 1'!F8</f>
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="26" t="s">
         <v>69</v>
       </c>
       <c r="B5" s="23" t="str">
@@ -1708,13 +1708,13 @@
         <f>'H-HRS 1'!C13</f>
         <v>5</v>
       </c>
-      <c r="D5" s="43">
+      <c r="D5" s="28">
         <f>'H-HRS 1'!F13</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="26" t="s">
         <v>69</v>
       </c>
       <c r="B6" s="23" t="str">
@@ -1725,13 +1725,13 @@
         <f>'H-HRS 1'!C18</f>
         <v>8</v>
       </c>
-      <c r="D6" s="43">
+      <c r="D6" s="28">
         <f>'H-HRS 1'!F18</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="26" t="s">
         <v>69</v>
       </c>
       <c r="B7" s="23" t="str">
@@ -1742,13 +1742,13 @@
         <f>'H-HRS 1'!C23</f>
         <v>3</v>
       </c>
-      <c r="D7" s="43">
+      <c r="D7" s="28">
         <f>'H-HRS 1'!F23</f>
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="26" t="s">
         <v>69</v>
       </c>
       <c r="B8" s="23" t="str">
@@ -1759,13 +1759,13 @@
         <f>'H-HRS 2'!C3</f>
         <v>3</v>
       </c>
-      <c r="D8" s="43">
+      <c r="D8" s="28">
         <f>'H-HRS 2'!F3</f>
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="26" t="s">
         <v>68</v>
       </c>
       <c r="B9" s="23" t="str">
@@ -1776,13 +1776,13 @@
         <f>'H-HRS 2'!C7</f>
         <v>3</v>
       </c>
-      <c r="D9" s="43">
+      <c r="D9" s="28">
         <f>'H-HRS 2'!F7</f>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="26" t="s">
         <v>68</v>
       </c>
       <c r="B10" s="23" t="str">
@@ -1793,13 +1793,13 @@
         <f>'H-HRS 2'!C12</f>
         <v>2</v>
       </c>
-      <c r="D10" s="43">
+      <c r="D10" s="28">
         <f>'H-HRS 2'!F12</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="26" t="s">
         <v>69</v>
       </c>
       <c r="B11" s="23" t="str">
@@ -1810,13 +1810,13 @@
         <f>'H-HRS 2'!C17</f>
         <v>4</v>
       </c>
-      <c r="D11" s="43">
+      <c r="D11" s="28">
         <f>'H-HRS 2'!F17</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="27" t="s">
         <v>69</v>
       </c>
       <c r="B12" s="24" t="str">
@@ -1827,9 +1827,9 @@
         <f>'H-HRS 2'!C22</f>
         <v>4</v>
       </c>
-      <c r="D12" s="43">
+      <c r="D12" s="28">
         <f>'H-HRS 2'!F22</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1849,9 +1849,9 @@
   </sheetPr>
   <dimension ref="B1:AB124"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1871,29 +1871,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
@@ -1956,18 +1956,18 @@
       <c r="B3" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="35">
         <v>3</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="41" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="17">
         <f>F4+F5+F6+F7</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -1996,11 +1996,11 @@
       <c r="B4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="32"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="38"/>
+      <c r="E4" s="42"/>
       <c r="F4" s="10">
         <f>G4+H4+I4+J4+K4</f>
         <v>5</v>
@@ -2021,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -2044,11 +2044,11 @@
       <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="32"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="38"/>
+      <c r="E5" s="42"/>
       <c r="F5" s="10">
         <f t="shared" ref="F5:F7" si="0">G5+H5+I5+J5+K5</f>
         <v>4</v>
@@ -2069,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -2092,32 +2092,32 @@
       <c r="B6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="32"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="38"/>
+      <c r="E6" s="42"/>
       <c r="F6" s="10">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" s="7">
         <v>1</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="7">
         <v>0</v>
       </c>
       <c r="L6" s="7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -2140,11 +2140,11 @@
       <c r="B7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="33"/>
+      <c r="C7" s="37"/>
       <c r="D7" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="39"/>
+      <c r="E7" s="43"/>
       <c r="F7" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -2188,18 +2188,18 @@
       <c r="B8" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="38">
         <v>1</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="41" t="s">
         <v>32</v>
       </c>
       <c r="F8" s="17">
         <f>SUM(F9:F12)</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -2228,14 +2228,14 @@
       <c r="B9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="35"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="38"/>
+      <c r="E9" s="42"/>
       <c r="F9" s="10">
         <f>SUM(G9:K9)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" s="7">
         <v>1</v>
@@ -2244,7 +2244,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="7">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -2276,20 +2276,20 @@
       <c r="B10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="35"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="38"/>
+      <c r="E10" s="42"/>
       <c r="F10" s="10">
         <f t="shared" ref="F10:F12" si="1">SUM(G10:K10)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" s="7">
         <v>1</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -2324,23 +2324,23 @@
       <c r="B11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="35"/>
+      <c r="C11" s="39"/>
       <c r="D11" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="38"/>
+      <c r="E11" s="42"/>
       <c r="F11" s="10">
         <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G11" s="7">
         <v>3</v>
-      </c>
-      <c r="G11" s="7">
-        <v>1</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7">
         <v>0</v>
@@ -2349,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
@@ -2372,32 +2372,32 @@
       <c r="B12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="36"/>
+      <c r="C12" s="40"/>
       <c r="D12" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="39"/>
+      <c r="E12" s="43"/>
       <c r="F12" s="10">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G12" s="7">
         <v>1</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="7">
         <v>0</v>
       </c>
       <c r="L12" s="7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -2420,18 +2420,18 @@
       <c r="B13" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="34">
+      <c r="C13" s="38">
         <v>5</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="41" t="s">
         <v>32</v>
       </c>
       <c r="F13" s="17">
         <f>SUM(F14:F17)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -2460,17 +2460,17 @@
       <c r="B14" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="35"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="38"/>
+      <c r="E14" s="42"/>
       <c r="F14" s="10">
         <f>SUM(G14:K14)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
@@ -2508,20 +2508,20 @@
       <c r="B15" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="35"/>
+      <c r="C15" s="39"/>
       <c r="D15" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="38"/>
+      <c r="E15" s="42"/>
       <c r="F15" s="10">
         <f t="shared" ref="F15:F17" si="2">SUM(G15:K15)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="7">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
@@ -2556,23 +2556,23 @@
       <c r="B16" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="35"/>
+      <c r="C16" s="39"/>
       <c r="D16" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="38"/>
+      <c r="E16" s="42"/>
       <c r="F16" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="7">
         <v>0</v>
@@ -2581,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -2604,23 +2604,23 @@
       <c r="B17" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="36"/>
+      <c r="C17" s="40"/>
       <c r="D17" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="39"/>
+      <c r="E17" s="43"/>
       <c r="F17" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="7">
         <v>0</v>
@@ -2629,7 +2629,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
@@ -2652,18 +2652,18 @@
       <c r="B18" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="34">
+      <c r="C18" s="38">
         <v>8</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="37" t="s">
+      <c r="E18" s="41" t="s">
         <v>32</v>
       </c>
       <c r="F18" s="17">
         <f>SUM(F19:F22)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -2692,23 +2692,23 @@
       <c r="B19" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="35"/>
+      <c r="C19" s="39"/>
       <c r="D19" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="38"/>
+      <c r="E19" s="42"/>
       <c r="F19" s="10">
         <f>SUM(G19:K19)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G19" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" s="7">
         <v>0</v>
@@ -2717,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
@@ -2740,23 +2740,23 @@
       <c r="B20" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="35"/>
+      <c r="C20" s="39"/>
       <c r="D20" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="38"/>
+      <c r="E20" s="42"/>
       <c r="F20" s="10">
         <f t="shared" ref="F20:F22" si="3">SUM(G20:K20)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="7">
         <v>0</v>
@@ -2765,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
@@ -2788,23 +2788,23 @@
       <c r="B21" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="35"/>
+      <c r="C21" s="39"/>
       <c r="D21" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="38"/>
+      <c r="E21" s="42"/>
       <c r="F21" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G21" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="7">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
@@ -2836,17 +2836,17 @@
       <c r="B22" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="35"/>
+      <c r="C22" s="39"/>
       <c r="D22" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="39"/>
+      <c r="E22" s="43"/>
       <c r="F22" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G22" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2861,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
@@ -2884,18 +2884,18 @@
       <c r="B23" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="34">
+      <c r="C23" s="38">
         <v>3</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="37" t="s">
+      <c r="E23" s="41" t="s">
         <v>32</v>
       </c>
       <c r="F23" s="17">
         <f>SUM(F24:F27)</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -2924,32 +2924,32 @@
       <c r="B24" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="35"/>
+      <c r="C24" s="39"/>
       <c r="D24" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="38"/>
+      <c r="E24" s="42"/>
       <c r="F24" s="10">
         <f>SUM(G24:K24)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G24" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H24" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="7">
         <v>0</v>
       </c>
       <c r="L24" s="7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -2972,32 +2972,32 @@
       <c r="B25" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="35"/>
+      <c r="C25" s="39"/>
       <c r="D25" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="38"/>
+      <c r="E25" s="42"/>
       <c r="F25" s="10">
         <f t="shared" ref="F25:F27" si="4">SUM(G25:K25)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G25" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="7">
         <v>0</v>
       </c>
       <c r="L25" s="7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -3020,23 +3020,23 @@
       <c r="B26" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="35"/>
+      <c r="C26" s="39"/>
       <c r="D26" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="38"/>
+      <c r="E26" s="42"/>
       <c r="F26" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G26" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H26" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" s="7">
         <v>0</v>
@@ -3045,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
@@ -3068,23 +3068,23 @@
       <c r="B27" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="36"/>
+      <c r="C27" s="40"/>
       <c r="D27" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="39"/>
+      <c r="E27" s="43"/>
       <c r="F27" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G27" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H27" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" s="7">
         <v>0</v>
@@ -3093,7 +3093,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
@@ -3121,19 +3121,19 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4">
         <f>SUM(F3:F27)</f>
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="G28" s="4">
         <f>SUM(G4:G27)</f>
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="H28" s="4">
         <f>SUM(H3:H27)</f>
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="I28" s="4">
         <f>SUM(I3:I27)</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J28" s="4">
         <f>SUM(J3:J27)</f>
@@ -3145,7 +3145,7 @@
       </c>
       <c r="L28" s="4">
         <f>SUM(L3:L27)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
@@ -3194,27 +3194,27 @@
       <c r="AB29" s="3"/>
     </row>
     <row r="30" spans="2:28" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="30"/>
-      <c r="R30" s="30"/>
-      <c r="S30" s="30"/>
-      <c r="T30" s="30"/>
-      <c r="U30" s="30"/>
-      <c r="V30" s="30"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="34"/>
+      <c r="S30" s="34"/>
+      <c r="T30" s="34"/>
+      <c r="U30" s="34"/>
+      <c r="V30" s="34"/>
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
@@ -5973,8 +5973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD3A6E3-1B6D-4A4B-96AE-55F890FAEB95}">
   <dimension ref="B1:AB121"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -5993,29 +5993,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
@@ -6078,18 +6078,18 @@
       <c r="B3" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3" s="38">
         <v>3</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="41" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="17">
         <f>SUM(F4:F6)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -6118,15 +6118,15 @@
       <c r="B4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="35"/>
+      <c r="C4" s="39"/>
       <c r="D4" s="14"/>
-      <c r="E4" s="38"/>
+      <c r="E4" s="42"/>
       <c r="F4" s="10">
         <f>SUM(G4:K4)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -6141,7 +6141,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -6164,9 +6164,9 @@
       <c r="B5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="35"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="38"/>
+      <c r="E5" s="42"/>
       <c r="F5" s="10">
         <f t="shared" ref="F5:F6" si="0">SUM(G5:K5)</f>
         <v>8</v>
@@ -6187,7 +6187,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -6210,21 +6210,21 @@
       <c r="B6" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="36"/>
+      <c r="C6" s="40"/>
       <c r="D6" s="14"/>
-      <c r="E6" s="39"/>
+      <c r="E6" s="43"/>
       <c r="F6" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="7">
         <v>0</v>
@@ -6233,7 +6233,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -6256,25 +6256,27 @@
       <c r="B7" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="38">
         <v>3</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="41" t="s">
         <v>32</v>
       </c>
       <c r="F7" s="17">
         <f>SUM(F8:F11)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
+      <c r="L7" s="7">
+        <v>0.25</v>
+      </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -6296,18 +6298,18 @@
       <c r="B8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="35"/>
+      <c r="C8" s="39"/>
       <c r="D8" s="14"/>
-      <c r="E8" s="38"/>
+      <c r="E8" s="42"/>
       <c r="F8" s="10">
         <f>SUM(G8:K8)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G8" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" s="7">
         <v>0</v>
@@ -6319,7 +6321,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -6342,18 +6344,18 @@
       <c r="B9" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="35"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="14"/>
-      <c r="E9" s="38"/>
+      <c r="E9" s="42"/>
       <c r="F9" s="10">
         <f t="shared" ref="F9:F10" si="1">SUM(G9:K9)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="7">
         <v>0</v>
@@ -6365,7 +6367,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -6388,21 +6390,21 @@
       <c r="B10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="35"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="14"/>
-      <c r="E10" s="38"/>
+      <c r="E10" s="42"/>
       <c r="F10" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="7">
         <v>0</v>
@@ -6411,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -6434,21 +6436,21 @@
       <c r="B11" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="36"/>
+      <c r="C11" s="40"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="39"/>
+      <c r="E11" s="43"/>
       <c r="F11" s="10">
         <f>SUM(G11:K11)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G11" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="7">
         <v>0</v>
@@ -6457,7 +6459,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
@@ -6480,18 +6482,18 @@
       <c r="B12" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12" s="38">
         <v>2</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="41" t="s">
         <v>32</v>
       </c>
       <c r="F12" s="17">
         <f>SUM(F13:F16)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -6520,30 +6522,30 @@
       <c r="B13" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="35"/>
+      <c r="C13" s="39"/>
       <c r="D13" s="14"/>
-      <c r="E13" s="38"/>
+      <c r="E13" s="42"/>
       <c r="F13" s="10">
         <f>SUM(G13:K13)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="7">
         <v>0</v>
       </c>
       <c r="L13" s="7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
@@ -6566,18 +6568,18 @@
       <c r="B14" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="35"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="14"/>
-      <c r="E14" s="38"/>
+      <c r="E14" s="42"/>
       <c r="F14" s="10">
         <f t="shared" ref="F14:F16" si="2">SUM(G14:K14)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G14" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" s="7">
         <v>0</v>
@@ -6589,7 +6591,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
@@ -6612,18 +6614,18 @@
       <c r="B15" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="35"/>
+      <c r="C15" s="39"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="38"/>
+      <c r="E15" s="42"/>
       <c r="F15" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="7">
         <v>0</v>
@@ -6635,7 +6637,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
@@ -6658,21 +6660,21 @@
       <c r="B16" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="36"/>
+      <c r="C16" s="40"/>
       <c r="D16" s="14"/>
-      <c r="E16" s="39"/>
+      <c r="E16" s="43"/>
       <c r="F16" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="7">
         <v>0</v>
@@ -6681,7 +6683,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -6704,18 +6706,18 @@
       <c r="B17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="34">
+      <c r="C17" s="38">
         <v>4</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="37" t="s">
+      <c r="E17" s="41" t="s">
         <v>32</v>
       </c>
       <c r="F17" s="17">
         <f>SUM(F18:F21)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -6744,21 +6746,21 @@
       <c r="B18" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="35"/>
+      <c r="C18" s="39"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="38"/>
+      <c r="E18" s="42"/>
       <c r="F18" s="10">
         <f>SUM(G18:K18)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G18" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" s="7">
         <v>0</v>
@@ -6767,7 +6769,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
@@ -6790,15 +6792,15 @@
       <c r="B19" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="35"/>
+      <c r="C19" s="39"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="38"/>
+      <c r="E19" s="42"/>
       <c r="F19" s="10">
         <f t="shared" ref="F19:F21" si="3">SUM(G19:K19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -6813,7 +6815,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
@@ -6836,18 +6838,18 @@
       <c r="B20" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="35"/>
+      <c r="C20" s="39"/>
       <c r="D20" s="14"/>
-      <c r="E20" s="38"/>
+      <c r="E20" s="42"/>
       <c r="F20" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
         <v>0</v>
@@ -6859,7 +6861,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
@@ -6882,21 +6884,21 @@
       <c r="B21" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="36"/>
+      <c r="C21" s="40"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="39"/>
+      <c r="E21" s="43"/>
       <c r="F21" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G21" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="7">
         <v>0</v>
@@ -6905,7 +6907,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
@@ -6928,18 +6930,18 @@
       <c r="B22" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="34">
+      <c r="C22" s="38">
         <v>4</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="37" t="s">
+      <c r="E22" s="41" t="s">
         <v>32</v>
       </c>
       <c r="F22" s="17">
         <f>SUM(F23:F24)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -6968,21 +6970,21 @@
       <c r="B23" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="35"/>
+      <c r="C23" s="39"/>
       <c r="D23" s="14"/>
-      <c r="E23" s="38"/>
+      <c r="E23" s="42"/>
       <c r="F23" s="10">
         <f>SUM(G23:K23)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="7">
         <v>0</v>
@@ -6991,7 +6993,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
@@ -7014,18 +7016,18 @@
       <c r="B24" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="36"/>
+      <c r="C24" s="40"/>
       <c r="D24" s="14"/>
-      <c r="E24" s="39"/>
+      <c r="E24" s="43"/>
       <c r="F24" s="10">
         <f>SUM(G24:K24)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G24" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="7">
         <v>0</v>
@@ -7037,7 +7039,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -7065,23 +7067,23 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4">
         <f>SUM(F3:F24)</f>
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="G25" s="4">
         <f>SUM(G4:G24)</f>
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="H25" s="4">
         <f>SUM(H3:H24)</f>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="I25" s="4">
         <f>SUM(I3:I24)</f>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J25" s="4">
         <f>SUM(J3:J24)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K25" s="4">
         <f>SUM(K3:K24)</f>
@@ -7089,7 +7091,7 @@
       </c>
       <c r="L25" s="4">
         <f>SUM(L3:L24)</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -7138,27 +7140,27 @@
       <c r="AB26" s="3"/>
     </row>
     <row r="27" spans="2:28" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="30"/>
-      <c r="T27" s="30"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="30"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="34"/>
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>

--- a/Fase 2/Evidencias Proyecto/Evidencias de documentacion/Historias de Usuario.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentacion/Historias de Usuario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\casti\Documents\GitHub\Capstone-MusicPro\Fase 2\Evidencias Proyecto\Evidencias de documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2E6202-D3A9-4351-96B0-0D3277EC2CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A84E7B-6C7F-4F1A-A862-F1BB337EE819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="71">
   <si>
     <t>TAREA E ID DE BACKLOG</t>
   </si>
@@ -251,6 +251,9 @@
   </si>
   <si>
     <t>Administrador</t>
+  </si>
+  <si>
+    <t>PROGRESO</t>
   </si>
 </sst>
 </file>
@@ -1851,7 +1854,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -5974,7 +5977,7 @@
   <dimension ref="B1:AB121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -6085,7 +6088,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="F3" s="17">
         <f>SUM(F4:F6)</f>
@@ -6119,7 +6122,9 @@
         <v>33</v>
       </c>
       <c r="C4" s="39"/>
-      <c r="D4" s="14"/>
+      <c r="D4" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="E4" s="42"/>
       <c r="F4" s="10">
         <f>SUM(G4:K4)</f>
@@ -6165,7 +6170,9 @@
         <v>34</v>
       </c>
       <c r="C5" s="39"/>
-      <c r="D5" s="14"/>
+      <c r="D5" s="14" t="s">
+        <v>65</v>
+      </c>
       <c r="E5" s="42"/>
       <c r="F5" s="10">
         <f t="shared" ref="F5:F6" si="0">SUM(G5:K5)</f>
@@ -6211,7 +6218,9 @@
         <v>35</v>
       </c>
       <c r="C6" s="40"/>
-      <c r="D6" s="14"/>
+      <c r="D6" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="E6" s="43"/>
       <c r="F6" s="10">
         <f t="shared" si="0"/>
@@ -6263,7 +6272,7 @@
         <v>9</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="F7" s="17">
         <f>SUM(F8:F11)</f>
@@ -6299,7 +6308,9 @@
         <v>36</v>
       </c>
       <c r="C8" s="39"/>
-      <c r="D8" s="14"/>
+      <c r="D8" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="E8" s="42"/>
       <c r="F8" s="10">
         <f>SUM(G8:K8)</f>
@@ -6345,7 +6356,9 @@
         <v>37</v>
       </c>
       <c r="C9" s="39"/>
-      <c r="D9" s="14"/>
+      <c r="D9" s="14" t="s">
+        <v>65</v>
+      </c>
       <c r="E9" s="42"/>
       <c r="F9" s="10">
         <f t="shared" ref="F9:F10" si="1">SUM(G9:K9)</f>
@@ -6391,7 +6404,9 @@
         <v>38</v>
       </c>
       <c r="C10" s="39"/>
-      <c r="D10" s="14"/>
+      <c r="D10" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="E10" s="42"/>
       <c r="F10" s="10">
         <f t="shared" si="1"/>
@@ -6437,7 +6452,9 @@
         <v>39</v>
       </c>
       <c r="C11" s="40"/>
-      <c r="D11" s="14"/>
+      <c r="D11" s="14" t="s">
+        <v>65</v>
+      </c>
       <c r="E11" s="43"/>
       <c r="F11" s="10">
         <f>SUM(G11:K11)</f>
@@ -6489,7 +6506,7 @@
         <v>9</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="F12" s="17">
         <f>SUM(F13:F16)</f>
@@ -6523,7 +6540,9 @@
         <v>40</v>
       </c>
       <c r="C13" s="39"/>
-      <c r="D13" s="14"/>
+      <c r="D13" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="E13" s="42"/>
       <c r="F13" s="10">
         <f>SUM(G13:K13)</f>
@@ -6569,7 +6588,9 @@
         <v>41</v>
       </c>
       <c r="C14" s="39"/>
-      <c r="D14" s="14"/>
+      <c r="D14" s="14" t="s">
+        <v>65</v>
+      </c>
       <c r="E14" s="42"/>
       <c r="F14" s="10">
         <f t="shared" ref="F14:F16" si="2">SUM(G14:K14)</f>
@@ -6615,7 +6636,9 @@
         <v>42</v>
       </c>
       <c r="C15" s="39"/>
-      <c r="D15" s="14"/>
+      <c r="D15" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="E15" s="42"/>
       <c r="F15" s="10">
         <f t="shared" si="2"/>
@@ -6661,7 +6684,9 @@
         <v>43</v>
       </c>
       <c r="C16" s="40"/>
-      <c r="D16" s="14"/>
+      <c r="D16" s="14" t="s">
+        <v>65</v>
+      </c>
       <c r="E16" s="43"/>
       <c r="F16" s="10">
         <f t="shared" si="2"/>
@@ -6713,7 +6738,7 @@
         <v>9</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="F17" s="17">
         <f>SUM(F18:F21)</f>
@@ -6747,7 +6772,9 @@
         <v>44</v>
       </c>
       <c r="C18" s="39"/>
-      <c r="D18" s="14"/>
+      <c r="D18" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="E18" s="42"/>
       <c r="F18" s="10">
         <f>SUM(G18:K18)</f>
@@ -6793,7 +6820,9 @@
         <v>45</v>
       </c>
       <c r="C19" s="39"/>
-      <c r="D19" s="14"/>
+      <c r="D19" s="14" t="s">
+        <v>65</v>
+      </c>
       <c r="E19" s="42"/>
       <c r="F19" s="10">
         <f t="shared" ref="F19:F21" si="3">SUM(G19:K19)</f>
@@ -6839,7 +6868,9 @@
         <v>46</v>
       </c>
       <c r="C20" s="39"/>
-      <c r="D20" s="14"/>
+      <c r="D20" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="E20" s="42"/>
       <c r="F20" s="10">
         <f t="shared" si="3"/>
@@ -6885,7 +6916,9 @@
         <v>47</v>
       </c>
       <c r="C21" s="40"/>
-      <c r="D21" s="14"/>
+      <c r="D21" s="14" t="s">
+        <v>65</v>
+      </c>
       <c r="E21" s="43"/>
       <c r="F21" s="10">
         <f t="shared" si="3"/>
@@ -6937,7 +6970,7 @@
         <v>9</v>
       </c>
       <c r="E22" s="41" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="F22" s="17">
         <f>SUM(F23:F24)</f>
@@ -6971,7 +7004,9 @@
         <v>48</v>
       </c>
       <c r="C23" s="39"/>
-      <c r="D23" s="14"/>
+      <c r="D23" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="E23" s="42"/>
       <c r="F23" s="10">
         <f>SUM(G23:K23)</f>
@@ -7017,7 +7052,9 @@
         <v>49</v>
       </c>
       <c r="C24" s="40"/>
-      <c r="D24" s="14"/>
+      <c r="D24" s="14" t="s">
+        <v>65</v>
+      </c>
       <c r="E24" s="43"/>
       <c r="F24" s="10">
         <f>SUM(G24:K24)</f>
